--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -134,28 +134,13 @@
     <t>Quay lại giao diện quản lý download. Hệ thống sẽ tự động hiển thị lại dữ liệu.</t>
   </si>
   <si>
-    <t>Ngoài hiển thị trạng thái cần hiển thị thêm Toast cho người dùng biết.</t>
-  </si>
-  <si>
     <t>Nhấn Back để quay lại giao diện trước đó. Hệ thống sẽ refresh lại và nhận ra các dữ liệu mới.</t>
   </si>
   <si>
     <t>Quay lại giao diện download bạn chọn một dữ liệu để download, đang thực hiện download nhấn nút Back cứng. Hệ thống thông báo đang có dữ liệu download, nếu bạn thực hiện sẽ hủy tiến trình download này. Nhấn OK. Sau đó quay lại thì dữ liệu này vẫn ở trạng thái chưa download</t>
   </si>
   <si>
-    <t>Có lỗi gì đó khi hệ thống không vào được màn hình tra từ</t>
-  </si>
-  <si>
     <t>Đang thực hiện download dữ liệu sau đó thực hiện xoay màn hình hệ thống phải thực hiện download bình thường.</t>
-  </si>
-  <si>
-    <t>Khi xoay màn hình, hệ thống mất thông tin download và quay lại từ đầu.</t>
-  </si>
-  <si>
-    <t>Nhấn Edit ở màn hình ngang, hệ thống hiển thị keyboard hết màn hình.</t>
-  </si>
-  <si>
-    <t>Hệ thống không hiển thị được keyword trên EditText (Do màu sắc)</t>
   </si>
   <si>
     <t>Gạt sang trái để chuyển sang giao diện ngữ pháp. Lần đầu tiên chưa chọn dữ liệu ngữ pháp nào sẽ thông báo không có dữ liệu. Nếu có sẽ hiển thị danh mục.</t>
@@ -186,9 +171,6 @@
     <t>Không hiển thị danh sách. Do bị lỗi hệ thống tự xóa tệp XML này. Riêng tệp này không xóa khi lỗi =&gt; Đã sửa</t>
   </si>
   <si>
-    <t>Nút Translate và Read không có padding rất xấu trên Android 2.3 =&gt; Đã sửa (Thêm padding)</t>
-  </si>
-  <si>
     <t>Nhập từ "I love you". Nhấn nút dịch, nút Read (Nhớ bật mạng).</t>
   </si>
   <si>
@@ -204,9 +186,6 @@
     <t>Nhấn và giữ vào vùng hiện thị thông tin dịch nghĩa, hệ thống sẽ xóa thông tin dịch nghĩa.</t>
   </si>
   <si>
-    <t>Màn hình tra từ</t>
-  </si>
-  <si>
     <t>Gạt để sang màn hình tra từ, lần đầu tiên không có, hệ thống hiển thị từ đầu tiên có trong dữ liệu</t>
   </si>
   <si>
@@ -216,9 +195,6 @@
     <t>Kích vào edit nhập từ, danh sách từ sẽ tự động cập nhật phù hợp từ được đánh vào.</t>
   </si>
   <si>
-    <t>Màn hình ngang keyboard hiển thị full, ko được để keyboard hiển thị full.</t>
-  </si>
-  <si>
     <t>Nhấn vào một từ trong list hệ thống sẽ xem nghĩa từ đó ở giao diện tra từ.</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
   </si>
   <si>
     <t>Xoay màn hình, thông tin phải được giữ nguyên như cũ</t>
-  </si>
-  <si>
-    <t>Hệ thống im lìm. Phải hiển thị thông báo lỗi và đề xuất người dùng bật mạng.</t>
   </si>
   <si>
     <t>Màn hình danh mục yêu thích</t>
@@ -250,9 +223,6 @@
   </si>
   <si>
     <t>Màn hình các từ đã tra</t>
-  </si>
-  <si>
-    <t>Trên Android 2.3 có lần bật ứng dụng thì đọc được, có lần không đọc được. Không ổn định. Dùng một thời gian vào nhiều form và thực hiện xoay màn hình nhiều lần, hệ thống lỗi không thực hiện phát âm được =&gt; Kiểm tra lại, thấy không dùng biến mInitCounter</t>
   </si>
   <si>
     <t>Nhấn vào biểu tượng phát âm để thực hiện phát âm từ tương ứng. Thực hiện xoay màn hình rồi phát âm lại.</t>
@@ -460,12 +430,169 @@
 - Copy dữ liệu sang bộ nhớ, thực hiện tính năng này =&gt; Hệ thống sẽ báo thực hiện thành công</t>
     </r>
   </si>
+  <si>
+    <t>- Thay đổi ngôn ngữ chưa có tác dụng
+- Thay đổi fontsize chưa có tác dụng ngay.</t>
+  </si>
+  <si>
+    <t>Ứng dụng chung</t>
+  </si>
+  <si>
+    <t>Vào ứng dụng, mở nhiều giao diện, xoay màn hình liên tục, thay đổi Settting. Sau đó thoát ứng dụng.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhấn Edit ở màn hình ngang, hệ thống hiển thị keyboard hết màn hình =&gt; Thêm thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>android:imeOptions="flagNoExtractUi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho EditText trong file edittext_clearable.xml</t>
+    </r>
+  </si>
+  <si>
+    <t>Nút Translate và Read không có padding rất xấu trên Android 2.3 =&gt; Đã sửa (Thêm thuộc tính padding)</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách từ</t>
+  </si>
+  <si>
+    <t>Màn hình ngang keyboard hiển thị full, ko được để keyboard hiển thị full =&gt; Đã thêm thuộc tính TextColor cho EditText</t>
+  </si>
+  <si>
+    <t>Chọn dữ liệu Quy tắc phát âm, chọn một bài rồi nhấn biểu tượng âm thanh trên vùng hiển thị. Hệ thống dọc phiên âm cho từ đó</t>
+  </si>
+  <si>
+    <t>- Có lỗi gì đó, hệ thống đơ khi thoát
+- Có trường hợp hệ thống thoát rồi lại khởi động ứng dụng</t>
+  </si>
+  <si>
+    <t>- Chỉ bị lỗi không hiển thị nền của text được chọn trên nền Android cũ 2.3. Vì thế rất khó nhìn
+- Màn hình ngang thì việc chọn từ bị lỗi, hệ thống hiển thị ở chỗ khác. Quay lại màn hình dọc vẫn bị (Lần đầu tiên ở màn hình dọc không bị) =&gt; Sau khi xoay mới bị, kiểm tra lại xem cần reset gì không.
+=&gt; Biến TTSManager sử dụng chung nên không dùng trực tiếp Context của DictionaryActivity mà sử dụng ApplicationContext. Bỏ biến mInitCounter trong TTSManager vì không cần thiết.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hệ thống không hiển thị được keyword trên EditText (Do màu sắc) =&gt; Thiết lập thuộc tính màu sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">android:textColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">android:textColorHighlight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cho</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EditText </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AutoCompletextView</t>
+    </r>
+  </si>
+  <si>
+    <t>- Trên Android 2.3 có lần bật ứng dụng thì đọc được, có lần không đọc được. Không ổn định. Dùng một thời gian vào nhiều form và thực hiện xoay màn hình nhiều lần, hệ thống lỗi không thực hiện phát âm được
+- Trên Android 4.1 thì lần đầu vào thì phát âm được, xoay màn hình rồi thực hiện phát âm thì không được.
+=&gt; Do khởi tạo TTSManager dùng DictionaryActivity mà khi xoay thì Context thay đổi. Chỉ cần sử dụng Application Context thay cho Activity hiện tại.</t>
+  </si>
+  <si>
+    <t>Khi xoay màn hình, hệ thống mất thông tin download và quay lại từ đầu =&gt; Màn hình này chỉ hỗ trợ lanscape</t>
+  </si>
+  <si>
+    <t>Không thấy phát ra âm thành gì cả trên android 2.3</t>
+  </si>
+  <si>
+    <t>Hệ thống im lìm. Phải hiển thị thông báo lỗi và đề xuất người dùng bật mạng =&gt; Đã hiển thị thông báo lỗi và nhắc người dùng bật mạng.</t>
+  </si>
+  <si>
+    <t>Ngoài hiển thị trạng thái cần hiển thị thêm Toast cho người dùng biết =&gt; Hiển thị thêm Toast báo cho người dùng biết</t>
+  </si>
+  <si>
+    <t>Kiểm thử lần2
+(Ngày 03/10/2013)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +633,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -591,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,15 +754,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,25 +796,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E70"/>
+  <dimension ref="A2:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,18 +1147,20 @@
     <col min="3" max="3" width="67.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -991,799 +1176,977 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="9">
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75">
+      <c r="A9" s="26"/>
+      <c r="B9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="D12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="120">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" ht="120">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="270">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="60">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="285">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="16">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1" t="s">
+      <c r="E31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:7" ht="165">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="60">
+      <c r="A33" s="16">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="16">
+        <v>4</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" ht="75">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="16">
+        <v>5</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="16"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="1:7" ht="120">
+      <c r="A48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="1:7" ht="45">
+      <c r="A49" s="16">
+        <v>6</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="1:7" ht="45">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="34"/>
+    </row>
+    <row r="54" spans="1:7" ht="75">
+      <c r="A54" s="16">
         <v>7</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="B54" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="16"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="34"/>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="16"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" ht="30">
+      <c r="A57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="34"/>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="A58" s="16">
+        <v>8</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="34"/>
+    </row>
+    <row r="59" spans="1:7" ht="90">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="34"/>
+    </row>
+    <row r="60" spans="1:7" ht="75">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="150">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="E60" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7" ht="75">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="180">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
+      <c r="E61" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="34"/>
+    </row>
+    <row r="63" spans="1:7" ht="60">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="1:7" ht="30">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="34"/>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="34"/>
+    </row>
+    <row r="66" spans="1:7" ht="60">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" ht="60">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="35"/>
+    </row>
+    <row r="68" spans="1:7" ht="120">
+      <c r="A68" s="17">
+        <v>9</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="34"/>
+    </row>
+    <row r="69" spans="1:7" ht="75">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="35"/>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="35"/>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="24"/>
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="1:7" ht="120">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="1:7" ht="90">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="10">
-        <v>2</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="165">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60">
-      <c r="A30" s="10">
-        <v>3</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="10"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="120">
-      <c r="A45" s="10"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="10">
-        <v>6</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="45">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="30">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="75">
-      <c r="A51" s="10">
-        <v>7</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="10"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="10"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="30">
-      <c r="A54" s="10"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="30">
-      <c r="A55" s="10">
-        <v>8</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="90">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="45">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="60">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="30">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="60">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="45">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="120">
-      <c r="A65" s="9">
-        <v>9</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="75">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="120">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" spans="1:5" ht="90">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="2"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="A9:A23"/>
+  <mergeCells count="24">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="A11:A25"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -732,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -775,10 +775,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -786,54 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G73"/>
+  <dimension ref="A2:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,13 +1149,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
@@ -1177,28 +1174,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,940 +1210,931 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="17">
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" ht="60">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="120">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" ht="120">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="270">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="60">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="285">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="30">
+        <v>2</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="165">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="60">
+      <c r="A32" s="30">
+        <v>3</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="30">
+        <v>4</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="75">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="30">
+        <v>5</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="30"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="30"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" ht="120">
+      <c r="A47" s="30"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" ht="45">
+      <c r="A48" s="30">
+        <v>6</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" ht="75">
+      <c r="A53" s="30">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="B53" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="30"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="30"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="30"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" ht="30">
+      <c r="A57" s="30">
+        <v>8</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:7" ht="90">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" ht="75">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="270">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" ht="60">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="285">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="16">
-        <v>2</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="45">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:7" ht="165">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" ht="60">
-      <c r="A33" s="16">
-        <v>3</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="16">
-        <v>4</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7" ht="75">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="34"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="34"/>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="16">
-        <v>5</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="34"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="16"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="16"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:7" ht="120">
-      <c r="A48" s="16"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="34"/>
-    </row>
-    <row r="49" spans="1:7" ht="45">
-      <c r="A49" s="16">
-        <v>6</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="34"/>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="34"/>
-    </row>
-    <row r="51" spans="1:7" ht="45">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="34"/>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="34"/>
-    </row>
-    <row r="54" spans="1:7" ht="75">
-      <c r="A54" s="16">
-        <v>7</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="34"/>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="16"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="34"/>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="16"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="34"/>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="A57" s="16"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="34"/>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="16">
-        <v>8</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="34"/>
-    </row>
-    <row r="59" spans="1:7" ht="90">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="34"/>
+      <c r="E59" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7" ht="75">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="35"/>
-    </row>
-    <row r="61" spans="1:7" ht="75">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:7" ht="60">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="35"/>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="34"/>
-    </row>
-    <row r="63" spans="1:7" ht="60">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="E62" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="27"/>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" ht="30">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" ht="60">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" ht="60">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="35"/>
-    </row>
-    <row r="64" spans="1:7" ht="30">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="34"/>
-    </row>
-    <row r="65" spans="1:7" ht="30">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="34"/>
-    </row>
-    <row r="66" spans="1:7" ht="60">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="34"/>
-    </row>
-    <row r="67" spans="1:7" ht="60">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
+      <c r="E66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="1:7" ht="120">
+      <c r="A67" s="29">
+        <v>9</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="26"/>
+    </row>
+    <row r="68" spans="1:7" ht="75">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="35"/>
-    </row>
-    <row r="68" spans="1:7" ht="120">
-      <c r="A68" s="17">
-        <v>9</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="34"/>
-    </row>
-    <row r="69" spans="1:7" ht="75">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
+      <c r="E68" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="35"/>
+        <v>81</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="35"/>
-    </row>
-    <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" ht="120">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="35"/>
-    </row>
-    <row r="72" spans="1:7" ht="120">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
+      <c r="E71" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" ht="90">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:7" ht="90">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="34"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="A11:A25"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="A10:A24"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B58:B67"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A54:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Giao diện tra từ</t>
-  </si>
-  <si>
-    <t>Lần đầu tiên bật ứng dụng mà chưa có dữ liệu. Hệ thống tự động vào giao diện "Danh sách từ điển" và tự động tìm kiếm. Nếu tìm không thành công sẽ hiển thị hộp thoại yêu cầu bạn download dữ liệu.</t>
   </si>
   <si>
     <t>Lần đầu tiên bật ứng dụng mà đã có dữ liệu. Hệ thống phải hiển thị hướng dẫn sử dụng chương trình. Xem nội dung để đảm bảo nội dung Guide hợp lý. Thực hiện xoay màn hình, gạt sang trái, sang phải sau đó quay trở lại thông tin vẫn được giữ nguyên.</t>
@@ -125,9 +122,6 @@
     <t>Chọn một dữ liệu lớn để download. Đang quá trình download, thực hiện ngắt mạng. Hệ thống hiển thị trạng thái download dữ liệu lỗi tương ứng.</t>
   </si>
   <si>
-    <t>Nhấn nút Back (Cứng) để quay lại form trước đó, hệ thống sẽ tự động load lại và không thấy dữ liệu.</t>
-  </si>
-  <si>
     <t>Quay lại và thực hiện download lại dữ liệu. Chọn download nhiều dữ liệu, hệ thống sẽ thực hiện download tuần tự cho đến khi xong.</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
   </si>
   <si>
     <t>Nhấn biểu tượng mũi tên sang phải để sang bài tiếp theo. Thực hiện nhấn liên tiếp cho đến hết thì sẽ thông báo không dịch chuyển tiếp được.</t>
-  </si>
-  <si>
-    <t>Nhấn biểu tượng danh mục (Biểu tượng đâu tiên) để xem danh mục các bài học.</t>
   </si>
   <si>
     <t>Nhấn biểu tượng chữ I để xem thông tin về bộ dữ liệu ngữ pháp</t>
@@ -198,9 +189,6 @@
     <t>Nhấn vào một từ trong list hệ thống sẽ xem nghĩa từ đó ở giao diện tra từ.</t>
   </si>
   <si>
-    <t>THực hiện gạt sang phải để quay về màn hình danh sách từ, thông tin phải được giữ nguyên như cũ.</t>
-  </si>
-  <si>
     <t>Xoay màn hình, thông tin phải được giữ nguyên như cũ</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
   </si>
   <si>
     <t>Nhấn và giữ biểu tượng ngôi sao hoặc vào Menu/Your Favourite. Hệ thống sẽ hiển thị danh sách các từ yêu thích</t>
-  </si>
-  <si>
-    <t>Nhấn nút sao vào các từ để phát âm</t>
   </si>
   <si>
     <t>Thực hiện nhấn và giữ vào một từ sẽ hiển thị danh mục lựa chọn: Xóa/Xóa tất cả. Chọn:
@@ -248,12 +233,6 @@
   <si>
     <t>Nhấn phím Menu/Dictionaries list để hiện thị danh sách từ điển: Hiển thị hai segment là Dictionaries và Grammars. Kích để chuyển giữa hai segment này.
 Nếu vào từ màn hình ngữ pháp, mặc định ở segment ngữ pháp, các màn hình khác mặc định vào segment từ điển.</t>
-  </si>
-  <si>
-    <t>Nhấn nút Refresh, hệ thống sẽ cập nhật lại thông tin từ điển từ thư mục dữ liệu.</t>
-  </si>
-  <si>
-    <t>Thực hiện đổi thư mục dữ liệu hoặc copy, xóa dữ liệu rồi nhấn nút này, hệ thống sẽ cập nhật lại danh sách dữ liệu.</t>
   </si>
   <si>
     <t>Từ màn hình danh sách từ điển, kích biểu tượng download để sang màn hình quản lý download dữ liệu</t>
@@ -431,14 +410,7 @@
     </r>
   </si>
   <si>
-    <t>- Thay đổi ngôn ngữ chưa có tác dụng
-- Thay đổi fontsize chưa có tác dụng ngay.</t>
-  </si>
-  <si>
     <t>Ứng dụng chung</t>
-  </si>
-  <si>
-    <t>Vào ứng dụng, mở nhiều giao diện, xoay màn hình liên tục, thay đổi Settting. Sau đó thoát ứng dụng.</t>
   </si>
   <si>
     <r>
@@ -572,9 +544,6 @@
 =&gt; Do khởi tạo TTSManager dùng DictionaryActivity mà khi xoay thì Context thay đổi. Chỉ cần sử dụng Application Context thay cho Activity hiện tại.</t>
   </si>
   <si>
-    <t>Khi xoay màn hình, hệ thống mất thông tin download và quay lại từ đầu =&gt; Màn hình này chỉ hỗ trợ lanscape</t>
-  </si>
-  <si>
     <t>Không thấy phát ra âm thành gì cả trên android 2.3</t>
   </si>
   <si>
@@ -586,6 +555,60 @@
   <si>
     <t>Kiểm thử lần2
 (Ngày 03/10/2013)</t>
+  </si>
+  <si>
+    <t>Lần đầu tiên bật ứng dụng. Nếu mà  ứng dụng chưa có dữ liệu. Hệ thống tự động vào giao diện "Danh sách từ điển" và tự động tìm kiếm. Nếu tìm không thành công sẽ hiển thị hộp thoại yêu cầu bạn download dữ liệu.</t>
+  </si>
+  <si>
+    <t>- Trên android 2.3.6, lỗi khi xoay màn hình rồi nhấn và giữ vào một từ ở phần nghĩa, menu hiển thị sai vị trí và không thể điều chỉnh được.</t>
+  </si>
+  <si>
+    <t>Nhấn biểu tượng danh mục (Biểu tượng đầu tiên) để xem danh mục các bài học.</t>
+  </si>
+  <si>
+    <t>Giống lỗi ở trên trong màn hình tra từ</t>
+  </si>
+  <si>
+    <t>Thực hiện đầy đủ các thao tác</t>
+  </si>
+  <si>
+    <t>- Xuất hiện trường hợp ứng dụng chết khi đang thực hiện dịch sang màn hình danh sách từ và nhấn nút tra từ</t>
+  </si>
+  <si>
+    <t>Thực hiện gạt sang phải để quay về màn hình danh sách từ, thông tin phải được giữ nguyên như cũ.</t>
+  </si>
+  <si>
+    <t>Nhấn nút sound tương ứng với từng từ để phát âm cho tư đó</t>
+  </si>
+  <si>
+    <t>Ở giao diện ngang, nhiều khi không chọn từ được trong list từ</t>
+  </si>
+  <si>
+    <t>Nhấn nút Refresh, hệ thống sẽ cập nhật lại thông tin từ điển từ thư mục dữ liệu. Thực hiện đổi thư mục dữ liệu hoặc copy, xóa dữ liệu rồi nhấn nút này, hệ thống sẽ cập nhật lại danh sách dữ liệu.</t>
+  </si>
+  <si>
+    <t>Nhấn nút Back (Cứng) để quay lại form trước đó, hệ thống sẽ tự động load cập nhật lại dữ liệu đã có và dữ liệu mới download</t>
+  </si>
+  <si>
+    <t>Một số trường hợp, khi quay về danh sách dữ liệu và đang thực hiện tìm kiếm dữ liệu thì bị bật về giao diện chính chưa rõ nguyên nhân</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>Khi xoay màn hình, hệ thống mất thông tin download và quay lại từ đầu =&gt; Màn hình này chỉ hỗ trợ màn hình dọc, không xoay được.</t>
+  </si>
+  <si>
+    <t>Sau khi move xong cần phải thông báo là vào mục … nhấn nút refresh để cập nhật lại dữ liệu.</t>
+  </si>
+  <si>
+    <t>- Khi trong quá trình nhập từ, thì list không tự động về vị trí đầu tiên mà vẫn ở scroll cũ. Ở màn hình ngang trên giao diện tra từ cũng bị tương tự =&gt; Đã sửa (Sử dụng listViewKeyword.setAdapter thay cho keywordAdapter.notifyDataSetChanged())
+- Sau khi tra từ, gạt sang phải để về giao diện cũ thì trên Android 2.3.6 không thể kích vào phần tử trên list mà phải kéo lên trên hoặc xuống dưới thì mới có thể kích được vào một phần tử trên list =&gt; Sửa lỗi trên không bị lỗi này.</t>
+  </si>
+  <si>
+    <t>- Thay đổi ngôn ngữ chưa có tác dụng
+- Chưa thực hiện thay đổi ngôn ngữ mà vẫn yêu cầu restart lại =&gt; Đã sửa (Do so sánh sai)
+- Thay đổi fontsize chưa có tác dụng ngay.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,8 +690,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -691,43 +720,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -781,56 +773,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G72"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,13 +1141,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
@@ -1174,28 +1166,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="28"/>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,139 +1202,161 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="29">
+      <c r="A10" s="32">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="60">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="120">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="120">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="27"/>
+        <v>82</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="270">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1350,12 +1364,14 @@
         <v>11</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,758 +1379,863 @@
         <v>11</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="60">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="45">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="285">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="285">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="32">
+        <v>2</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="165">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60">
+      <c r="A32" s="32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="32">
+        <v>4</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" ht="75">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" ht="285">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="32">
+        <v>5</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" ht="120">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" ht="45">
+      <c r="A48" s="32">
+        <v>6</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" ht="75">
+      <c r="A53" s="32">
+        <v>7</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="32">
+        <v>8</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" ht="90">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:7" ht="75">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="30">
-        <v>2</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="165">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="60">
-      <c r="A32" s="30">
-        <v>3</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D58" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="30">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="30">
-        <v>4</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" ht="75">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="30">
-        <v>5</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="30"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="26"/>
-    </row>
-    <row r="47" spans="1:7" ht="120">
-      <c r="A47" s="30"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="30">
-        <v>6</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="1:7" ht="45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" spans="1:7" ht="75">
-      <c r="A53" s="30">
-        <v>7</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="30"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="30"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="30"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="A57" s="30">
-        <v>8</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" ht="90">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="75">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G59" s="27"/>
     </row>
-    <row r="60" spans="1:7" ht="75">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
+    <row r="60" spans="1:7" ht="30">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" ht="30">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
+        <v>105</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:7" ht="60">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" spans="1:7" ht="60">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="D61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+    <row r="64" spans="1:7" ht="75">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="1:7" ht="75">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="1:7" ht="60">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="26"/>
-    </row>
-    <row r="66" spans="1:7" ht="60">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
+      <c r="D65" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" ht="120">
+      <c r="A66" s="32">
+        <v>9</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="27"/>
-    </row>
-    <row r="67" spans="1:7" ht="120">
-      <c r="A67" s="29">
-        <v>9</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>86</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="1:7" ht="75">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="26"/>
-    </row>
-    <row r="68" spans="1:7" ht="75">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" ht="30">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:7" ht="120">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="15" t="s">
+      <c r="D70" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" ht="90">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="27"/>
-    </row>
-    <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="27"/>
-    </row>
-    <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="27"/>
-    </row>
-    <row r="71" spans="1:7" ht="120">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:7" ht="90">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A66:A71"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="B32:B37"/>
@@ -2125,16 +2246,8 @@
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -451,10 +451,6 @@
     <t>Chọn dữ liệu Quy tắc phát âm, chọn một bài rồi nhấn biểu tượng âm thanh trên vùng hiển thị. Hệ thống dọc phiên âm cho từ đó</t>
   </si>
   <si>
-    <t>- Có lỗi gì đó, hệ thống đơ khi thoát
-- Có trường hợp hệ thống thoát rồi lại khởi động ứng dụng</t>
-  </si>
-  <si>
     <t>- Chỉ bị lỗi không hiển thị nền của text được chọn trên nền Android cũ 2.3. Vì thế rất khó nhìn
 - Màn hình ngang thì việc chọn từ bị lỗi, hệ thống hiển thị ở chỗ khác. Quay lại màn hình dọc vẫn bị (Lần đầu tiên ở màn hình dọc không bị) =&gt; Sau khi xoay mới bị, kiểm tra lại xem cần reset gì không.
 =&gt; Biến TTSManager sử dụng chung nên không dùng trực tiếp Context của DictionaryActivity mà sử dụng ApplicationContext. Bỏ biến mInitCounter trong TTSManager vì không cần thiết.</t>
@@ -572,18 +568,12 @@
     <t>Thực hiện đầy đủ các thao tác</t>
   </si>
   <si>
-    <t>- Xuất hiện trường hợp ứng dụng chết khi đang thực hiện dịch sang màn hình danh sách từ và nhấn nút tra từ</t>
-  </si>
-  <si>
     <t>Thực hiện gạt sang phải để quay về màn hình danh sách từ, thông tin phải được giữ nguyên như cũ.</t>
   </si>
   <si>
     <t>Nhấn nút sound tương ứng với từng từ để phát âm cho tư đó</t>
   </si>
   <si>
-    <t>Ở giao diện ngang, nhiều khi không chọn từ được trong list từ</t>
-  </si>
-  <si>
     <t>Nhấn nút Refresh, hệ thống sẽ cập nhật lại thông tin từ điển từ thư mục dữ liệu. Thực hiện đổi thư mục dữ liệu hoặc copy, xóa dữ liệu rồi nhấn nút này, hệ thống sẽ cập nhật lại danh sách dữ liệu.</t>
   </si>
   <si>
@@ -597,18 +587,45 @@
   </si>
   <si>
     <t>Khi xoay màn hình, hệ thống mất thông tin download và quay lại từ đầu =&gt; Màn hình này chỉ hỗ trợ màn hình dọc, không xoay được.</t>
-  </si>
-  <si>
-    <t>Sau khi move xong cần phải thông báo là vào mục … nhấn nút refresh để cập nhật lại dữ liệu.</t>
   </si>
   <si>
     <t>- Khi trong quá trình nhập từ, thì list không tự động về vị trí đầu tiên mà vẫn ở scroll cũ. Ở màn hình ngang trên giao diện tra từ cũng bị tương tự =&gt; Đã sửa (Sử dụng listViewKeyword.setAdapter thay cho keywordAdapter.notifyDataSetChanged())
 - Sau khi tra từ, gạt sang phải để về giao diện cũ thì trên Android 2.3.6 không thể kích vào phần tử trên list mà phải kéo lên trên hoặc xuống dưới thì mới có thể kích được vào một phần tử trên list =&gt; Sửa lỗi trên không bị lỗi này.</t>
   </si>
   <si>
-    <t>- Thay đổi ngôn ngữ chưa có tác dụng
-- Chưa thực hiện thay đổi ngôn ngữ mà vẫn yêu cầu restart lại =&gt; Đã sửa (Do so sánh sai)
-- Thay đổi fontsize chưa có tác dụng ngay.</t>
+    <t>- Thay đổi ngôn ngữ chưa có tác dụng =&gt; Đã sửa
+- Thay đổi fontsize chưa có tác dụng ngay =&gt; Đã sửa</t>
+  </si>
+  <si>
+    <t>Sau khi move xong cần phải thông báo là vào mục … nhấn nút refresh để cập nhật lại dữ liệu =&gt; Đã sửa</t>
+  </si>
+  <si>
+    <t>- Có lỗi gì đó, hệ thống đơ khi thoát
+- Có trường hợp hệ thống thoát rồi lại khởi động ứng dụng
+- Cần hỗ trợ thêm tính năng nhấn và giữ vào một số nút thì hiển thị thông báo cho biết chức năng nút đó = &gt; Đã sửa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Xuất hiện trường hợp ứng dụng chết khi đang thực hiện dịch sang màn hình danh sách từ và nhấn nút tra từ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Khi nhấn Long Click vẫn nhận sự kiện click =&gt; Đã sửa (Return true ở sự kiện onLongClick).</t>
+    </r>
+  </si>
+  <si>
+    <t>Ở giao diện ngang, nhiều khi không chọn từ được trong list từ =&gt; Ko lỗi sau khi sửa lỗi load lại list.</t>
+  </si>
+  <si>
+    <t>- Chưa thực hiện thay đổi ngôn ngữ mà vẫn yêu cầu restart lại =&gt; Đã sửa (Do so sánh sai)
+- Khi thực hiện restart thì ứng dụng bị toi luôn =&gt; Đã sửa (Do thiếu xâu resource bên ngôn ngữ tiếng việt)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -782,46 +799,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,13 +1161,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
@@ -1166,28 +1186,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="21"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,49 +1221,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:7" ht="150">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>100</v>
+      <c r="G9" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="32">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="26"/>
+      <c r="F10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="60">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1251,14 +1271,14 @@
         <v>11</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="27"/>
+      <c r="F11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1266,14 +1286,14 @@
         <v>11</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="26"/>
+      <c r="F12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1281,14 +1301,14 @@
         <v>11</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="26"/>
+      <c r="F13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="120">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1298,16 +1318,16 @@
       <c r="E14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1315,16 +1335,16 @@
         <v>30</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1332,14 +1352,14 @@
         <v>11</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="26"/>
+      <c r="F16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="270">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1347,16 +1367,16 @@
         <v>30</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1364,14 +1384,14 @@
         <v>11</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="26"/>
+      <c r="F18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,14 +1399,14 @@
         <v>11</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="26"/>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="60">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1394,14 +1414,14 @@
         <v>11</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="26"/>
+      <c r="F20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="45">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,14 +1429,14 @@
         <v>11</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="26"/>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="285">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1424,18 +1444,18 @@
         <v>30</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>96</v>
+      <c r="G22" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,14 +1463,14 @@
         <v>11</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="26"/>
+      <c r="F23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1458,16 +1478,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="26"/>
+      <c r="F24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="32">
+      <c r="A25" s="29">
         <v>2</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1477,14 +1497,14 @@
         <v>11</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="26"/>
+      <c r="F25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1492,14 +1512,14 @@
         <v>11</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="26"/>
+      <c r="F26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1507,29 +1527,29 @@
         <v>11</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="26"/>
+      <c r="F27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="26"/>
+      <c r="F28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1537,14 +1557,14 @@
         <v>11</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="26"/>
+      <c r="F29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
@@ -1552,16 +1572,16 @@
         <v>30</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="165">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1571,18 +1591,18 @@
       <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>98</v>
+      <c r="F31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60">
-      <c r="A32" s="32">
+      <c r="A32" s="29">
         <v>3</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1594,14 +1614,14 @@
       <c r="E32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="27"/>
+      <c r="F32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1609,14 +1629,14 @@
         <v>11</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="28"/>
+      <c r="F33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="30">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1624,14 +1644,14 @@
         <v>11</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="28"/>
+      <c r="F34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1639,14 +1659,14 @@
         <v>11</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="28"/>
+      <c r="F35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1654,14 +1674,14 @@
         <v>11</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="28"/>
+      <c r="F36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1669,16 +1689,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="28"/>
+      <c r="F37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="32">
+      <c r="A38" s="29">
         <v>4</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1688,14 +1708,14 @@
         <v>11</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="28"/>
+      <c r="F38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1703,14 +1723,14 @@
         <v>11</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="28"/>
+      <c r="F39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" ht="75">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1720,14 +1740,14 @@
       <c r="E40" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="27"/>
+      <c r="F40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1735,31 +1755,31 @@
         <v>11</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="28"/>
+      <c r="F41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="285">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="28"/>
+        <v>106</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1767,16 +1787,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="26"/>
+      <c r="F43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="32">
+      <c r="A44" s="29">
         <v>5</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1786,29 +1806,29 @@
         <v>11</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="26"/>
+      <c r="F44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="26"/>
+      <c r="F45" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
@@ -1816,14 +1836,14 @@
         <v>11</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="26"/>
+      <c r="F46" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" ht="120">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
@@ -1831,16 +1851,16 @@
         <v>11</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="26"/>
+      <c r="F47" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="32">
+      <c r="A48" s="29">
         <v>6</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1850,14 +1870,14 @@
         <v>11</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="26"/>
+      <c r="F48" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1865,14 +1885,14 @@
         <v>11</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="26"/>
+      <c r="F49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="45">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1880,14 +1900,14 @@
         <v>11</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="26"/>
+      <c r="F50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="1" t="s">
         <v>64</v>
       </c>
@@ -1895,14 +1915,14 @@
         <v>11</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="26"/>
+      <c r="F51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
@@ -1910,16 +1930,16 @@
         <v>11</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="26"/>
+      <c r="F52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" ht="75">
-      <c r="A53" s="32">
+      <c r="A53" s="29">
         <v>7</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1929,14 +1949,14 @@
         <v>11</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="26"/>
+      <c r="F53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
@@ -1944,31 +1964,31 @@
         <v>11</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="26"/>
+      <c r="F54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="26"/>
+      <c r="F55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="32">
+      <c r="A56" s="29">
         <v>8</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1978,14 +1998,14 @@
         <v>11</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="26"/>
+      <c r="F56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="1:7" ht="90">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,14 +2013,14 @@
         <v>11</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="26"/>
+      <c r="F57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="1:7" ht="75">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2008,16 +2028,16 @@
         <v>30</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" ht="75">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,31 +2045,31 @@
         <v>30</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="26"/>
+      <c r="F60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7" ht="60">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2059,14 +2079,14 @@
       <c r="E61" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="27"/>
+      <c r="F61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
@@ -2074,14 +2094,14 @@
         <v>11</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="26"/>
+      <c r="F62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
@@ -2089,14 +2109,14 @@
         <v>11</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="26"/>
+      <c r="F63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="75">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
@@ -2104,16 +2124,16 @@
         <v>30</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" ht="75">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
@@ -2121,18 +2141,18 @@
         <v>30</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="27"/>
+        <v>105</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" ht="120">
-      <c r="A66" s="32">
+      <c r="A66" s="29">
         <v>9</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2140,14 +2160,14 @@
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="26"/>
+      <c r="F66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7" ht="75">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2157,14 +2177,14 @@
       <c r="E67" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="27"/>
+      <c r="F67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
@@ -2174,12 +2194,12 @@
       <c r="E68" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2189,49 +2209,47 @@
       <c r="E69" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" ht="120">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="27"/>
+      <c r="E70" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="90">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="34"/>
+      <c r="E71" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B56:B65"/>
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="B66:B71"/>
@@ -2248,6 +2266,14 @@
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -625,7 +625,12 @@
   </si>
   <si>
     <t>- Chưa thực hiện thay đổi ngôn ngữ mà vẫn yêu cầu restart lại =&gt; Đã sửa (Do so sánh sai)
-- Khi thực hiện restart thì ứng dụng bị toi luôn =&gt; Đã sửa (Do thiếu xâu resource bên ngôn ngữ tiếng việt)</t>
+- Khi thực hiện restart thì ứng dụng bị toi luôn =&gt; Đã sửa (Do thiếu xâu resource bên ngôn ngữ tiếng việt)
+- Chuyển sang ngôn ngữ tiếng việt, các giao diện sang tiếng việt bình thường, nhưng sau đó xoay màn hình thì ngôn ngữ giao diện lại về tiếng anh =&gt; Đã sửa (Do cơ chế ứng dụng khi xoay màn hình tự động dùng ngôn ngữ mặc đinh, thêm hàm check màn hình để load lại giao diện)</t>
+  </si>
+  <si>
+    <t>Kiểm thử lần3
+(Ngày 03/13/2013)</t>
   </si>
 </sst>
 </file>
@@ -741,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -821,28 +826,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G71"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,18 +1166,20 @@
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1185,29 +1195,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1234,14 @@
       <c r="G8" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="150">
+      <c r="H8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="150">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
         <v>81</v>
@@ -1241,12 +1261,14 @@
       <c r="G9" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="29">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="32">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1260,10 +1282,14 @@
         <v>11</v>
       </c>
       <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" ht="60">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="H10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,10 +1301,14 @@
         <v>11</v>
       </c>
       <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="H11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1290,10 +1320,14 @@
         <v>11</v>
       </c>
       <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="H12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,10 +1339,14 @@
         <v>11</v>
       </c>
       <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" ht="120">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="H13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="120">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1318,16 +1356,20 @@
       <c r="E14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="120">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="H14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="120">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1341,10 +1383,14 @@
         <v>11</v>
       </c>
       <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="H15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1356,10 +1402,14 @@
         <v>11</v>
       </c>
       <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="270">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="H16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="270">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1373,10 +1423,14 @@
         <v>11</v>
       </c>
       <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="H17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1388,10 +1442,14 @@
         <v>11</v>
       </c>
       <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="H18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1403,10 +1461,14 @@
         <v>11</v>
       </c>
       <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" ht="60">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="H19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="60">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1418,10 +1480,14 @@
         <v>11</v>
       </c>
       <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="45">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="H20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1433,10 +1499,14 @@
         <v>11</v>
       </c>
       <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="285">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="H21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="285">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1452,10 +1522,14 @@
       <c r="G22" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="H22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,10 +1541,14 @@
         <v>11</v>
       </c>
       <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="H23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1482,12 +1560,16 @@
         <v>11</v>
       </c>
       <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="29">
+      <c r="H24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="45">
+      <c r="A25" s="32">
         <v>2</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1501,10 +1583,14 @@
         <v>11</v>
       </c>
       <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="H25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1516,10 +1602,14 @@
         <v>11</v>
       </c>
       <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="H26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1531,10 +1621,14 @@
         <v>11</v>
       </c>
       <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="H27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
@@ -1546,10 +1640,14 @@
         <v>11</v>
       </c>
       <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="H28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1561,10 +1659,14 @@
         <v>11</v>
       </c>
       <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="H29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
@@ -1578,10 +1680,14 @@
         <v>11</v>
       </c>
       <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="165">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="H30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="165">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,12 +1703,16 @@
       <c r="G31" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="60">
-      <c r="A32" s="29">
+      <c r="H31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="60">
+      <c r="A32" s="32">
         <v>3</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1618,10 +1728,14 @@
         <v>11</v>
       </c>
       <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="H32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1633,10 +1747,14 @@
         <v>11</v>
       </c>
       <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" ht="30">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="H33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1648,10 +1766,14 @@
         <v>11</v>
       </c>
       <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="H34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1663,10 +1785,14 @@
         <v>11</v>
       </c>
       <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="H35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1678,10 +1804,14 @@
         <v>11</v>
       </c>
       <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="H36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1693,12 +1823,16 @@
         <v>11</v>
       </c>
       <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="29">
+      <c r="H37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="32">
         <v>4</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1712,10 +1846,14 @@
         <v>11</v>
       </c>
       <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="H38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1727,10 +1865,14 @@
         <v>11</v>
       </c>
       <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" ht="75">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="H39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="75">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1744,10 +1886,14 @@
         <v>11</v>
       </c>
       <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="H40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1759,10 +1905,14 @@
         <v>11</v>
       </c>
       <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:7" ht="285">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="H41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" ht="285">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="1" t="s">
         <v>99</v>
       </c>
@@ -1776,10 +1926,14 @@
         <v>11</v>
       </c>
       <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="H42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1791,12 +1945,16 @@
         <v>11</v>
       </c>
       <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="29">
+      <c r="H43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="32">
         <v>5</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1810,10 +1968,14 @@
         <v>11</v>
       </c>
       <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
+      <c r="H44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1825,10 +1987,14 @@
         <v>11</v>
       </c>
       <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
+      <c r="H45" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
@@ -1840,10 +2006,14 @@
         <v>11</v>
       </c>
       <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" ht="120">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
+      <c r="H46" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="120">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
@@ -1855,12 +2025,16 @@
         <v>11</v>
       </c>
       <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="29">
+      <c r="H47" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48" s="32">
         <v>6</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1874,10 +2048,14 @@
         <v>11</v>
       </c>
       <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
+      <c r="H48" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1889,10 +2067,14 @@
         <v>11</v>
       </c>
       <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="1:7" ht="45">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="H49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="45">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1904,10 +2086,14 @@
         <v>11</v>
       </c>
       <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="H50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="1" t="s">
         <v>64</v>
       </c>
@@ -1919,10 +2105,14 @@
         <v>11</v>
       </c>
       <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="H51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
@@ -1934,12 +2124,16 @@
         <v>11</v>
       </c>
       <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" ht="75">
-      <c r="A53" s="29">
+      <c r="H52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="75">
+      <c r="A53" s="32">
         <v>7</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1953,10 +2147,14 @@
         <v>11</v>
       </c>
       <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="29"/>
-      <c r="B54" s="32"/>
+      <c r="H53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
@@ -1968,10 +2166,14 @@
         <v>11</v>
       </c>
       <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
+      <c r="H54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" ht="45">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="1" t="s">
         <v>101</v>
       </c>
@@ -1983,12 +2185,16 @@
         <v>11</v>
       </c>
       <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="29">
+      <c r="H55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2002,10 +2208,14 @@
         <v>11</v>
       </c>
       <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" ht="90">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
+      <c r="H56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:9" ht="90">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
@@ -2017,10 +2227,14 @@
         <v>11</v>
       </c>
       <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:7" ht="75">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+      <c r="H57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="75">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2034,10 +2248,14 @@
         <v>11</v>
       </c>
       <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:7" ht="75">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="H58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" ht="75">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
@@ -2051,10 +2269,14 @@
         <v>11</v>
       </c>
       <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="H59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="1" t="s">
         <v>102</v>
       </c>
@@ -2066,10 +2288,12 @@
         <v>11</v>
       </c>
       <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" ht="60">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" ht="60">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2083,10 +2307,12 @@
         <v>11</v>
       </c>
       <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
@@ -2098,10 +2324,12 @@
         <v>11</v>
       </c>
       <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" ht="30">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
@@ -2113,10 +2341,12 @@
         <v>11</v>
       </c>
       <c r="G63" s="23"/>
-    </row>
-    <row r="64" spans="1:7" ht="75">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="75">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
@@ -2130,10 +2360,12 @@
         <v>104</v>
       </c>
       <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:7" ht="75">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" ht="75">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
@@ -2147,12 +2379,14 @@
         <v>11</v>
       </c>
       <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="1:7" ht="120">
-      <c r="A66" s="29">
+      <c r="H65" s="21"/>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" ht="120">
+      <c r="A66" s="32">
         <v>9</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2164,10 +2398,12 @@
         <v>11</v>
       </c>
       <c r="G66" s="23"/>
-    </row>
-    <row r="67" spans="1:7" ht="75">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" ht="75">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2181,10 +2417,12 @@
         <v>11</v>
       </c>
       <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="1:9" ht="30">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
@@ -2196,10 +2434,12 @@
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="1:7" ht="30">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2211,10 +2451,12 @@
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" ht="120">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="24"/>
+    </row>
+    <row r="70" spans="1:9" ht="285">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="1" t="s">
         <v>78</v>
       </c>
@@ -2224,16 +2466,18 @@
       <c r="E70" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G70" s="31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="90">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" ht="90">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2247,9 +2491,20 @@
         <v>11</v>
       </c>
       <c r="G71" s="24"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B56:B65"/>
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="B66:B71"/>
@@ -2266,14 +2521,6 @@
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
+++ b/trunk/mdictpro/test/MobileSoftVn_MDictPro_Kiem thu ung dung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -631,6 +631,9 @@
   <si>
     <t>Kiểm thử lần3
 (Ngày 03/13/2013)</t>
+  </si>
+  <si>
+    <t>Không thấy hiển thị dữ liệu mặc dù đã download về rùi =&gt; Lỗi dữ liệu, build lại dữ liệu.</t>
   </si>
 </sst>
 </file>
@@ -837,20 +840,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,13 +1174,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="4" t="s">
@@ -1196,32 +1199,32 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,14 +1264,16 @@
       <c r="G9" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="45">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1288,8 +1293,8 @@
       <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" ht="60">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,8 +1312,8 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1326,8 +1331,8 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1345,8 +1350,8 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="120">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,8 +1373,8 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="120">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,8 +1394,8 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,8 +1413,8 @@
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="270">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1429,8 +1434,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1448,8 +1453,8 @@
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" ht="30">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,8 +1472,8 @@
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" ht="60">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1486,8 +1491,8 @@
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1510,8 @@
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" ht="285">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1528,8 +1533,8 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1547,8 +1552,8 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1566,10 +1571,10 @@
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" ht="45">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>2</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1589,8 +1594,8 @@
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1608,8 +1613,8 @@
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1627,8 +1632,8 @@
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
@@ -1646,8 +1651,8 @@
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1665,8 +1670,8 @@
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
@@ -1686,8 +1691,8 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="165">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1709,10 +1714,10 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="60">
-      <c r="A32" s="32">
+      <c r="A32" s="33">
         <v>3</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1734,8 +1739,8 @@
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1753,8 +1758,8 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1772,8 +1777,8 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1791,8 +1796,8 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1810,8 +1815,8 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1829,10 +1834,10 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>4</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1852,8 +1857,8 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1871,8 +1876,8 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="75">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1892,8 +1897,8 @@
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1911,8 +1916,8 @@
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="285">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="1" t="s">
         <v>99</v>
       </c>
@@ -1932,8 +1937,8 @@
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1951,10 +1956,10 @@
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="32">
+      <c r="A44" s="33">
         <v>5</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1974,8 +1979,8 @@
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1993,8 +1998,8 @@
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2012,8 +2017,8 @@
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="1:9" ht="120">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
@@ -2031,10 +2036,10 @@
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="45">
-      <c r="A48" s="32">
+      <c r="A48" s="33">
         <v>6</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2054,8 +2059,8 @@
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2073,8 +2078,8 @@
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="45">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2092,8 +2097,8 @@
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="1" t="s">
         <v>64</v>
       </c>
@@ -2111,8 +2116,8 @@
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
@@ -2130,10 +2135,10 @@
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" ht="75">
-      <c r="A53" s="32">
+      <c r="A53" s="33">
         <v>7</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2153,8 +2158,8 @@
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
@@ -2172,8 +2177,8 @@
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" ht="45">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="1" t="s">
         <v>101</v>
       </c>
@@ -2191,10 +2196,10 @@
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="32">
+      <c r="A56" s="33">
         <v>8</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2214,8 +2219,8 @@
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" ht="90">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,8 +2238,8 @@
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="1:9" ht="75">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2254,8 +2259,8 @@
       <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" ht="75">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
@@ -2275,8 +2280,8 @@
       <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" ht="30">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="1" t="s">
         <v>102</v>
       </c>
@@ -2288,12 +2293,14 @@
         <v>11</v>
       </c>
       <c r="G60" s="23"/>
-      <c r="H60" s="21"/>
+      <c r="H60" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="1:9" ht="60">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2303,16 +2310,20 @@
       <c r="E61" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="21"/>
+      <c r="F61" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
@@ -2324,12 +2335,14 @@
         <v>11</v>
       </c>
       <c r="G62" s="23"/>
-      <c r="H62" s="21"/>
+      <c r="H62" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="1:9" ht="30">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
@@ -2341,12 +2354,14 @@
         <v>11</v>
       </c>
       <c r="G63" s="23"/>
-      <c r="H63" s="21"/>
+      <c r="H63" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I63" s="23"/>
     </row>
     <row r="64" spans="1:9" ht="75">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
@@ -2360,12 +2375,14 @@
         <v>104</v>
       </c>
       <c r="G64" s="24"/>
-      <c r="H64" s="21"/>
+      <c r="H64" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" ht="75">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
@@ -2379,14 +2396,16 @@
         <v>11</v>
       </c>
       <c r="G65" s="24"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" s="24"/>
     </row>
     <row r="66" spans="1:9" ht="120">
-      <c r="A66" s="32">
+      <c r="A66" s="33">
         <v>9</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2398,12 +2417,14 @@
         <v>11</v>
       </c>
       <c r="G66" s="23"/>
-      <c r="H66" s="21"/>
+      <c r="H66" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I66" s="23"/>
     </row>
     <row r="67" spans="1:9" ht="75">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2417,12 +2438,14 @@
         <v>11</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="21"/>
+      <c r="H67" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I67" s="24"/>
     </row>
     <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
@@ -2434,12 +2457,14 @@
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="21"/>
+      <c r="H68" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:9" ht="30">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2451,12 +2476,14 @@
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="21"/>
+      <c r="H69" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" ht="285">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="1" t="s">
         <v>78</v>
       </c>
@@ -2472,12 +2499,14 @@
       <c r="G70" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:9" ht="90">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2491,20 +2520,13 @@
         <v>11</v>
       </c>
       <c r="G71" s="24"/>
-      <c r="H71" s="21"/>
+      <c r="H71" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="I71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B56:B65"/>
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="B66:B71"/>
@@ -2521,6 +2543,15 @@
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
